--- a/Asp-sens_steady-state_LCMS-annotations.xlsx
+++ b/Asp-sens_steady-state_LCMS-annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/Aspartate-sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C8C6A2-99E8-C941-96D9-647996E276EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3BC291-FDEF-A641-AB04-74524F195745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="1540" windowWidth="24980" windowHeight="16460" xr2:uid="{6312973D-7F17-714D-B76D-99B77399694C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="150">
   <si>
     <t>Filename</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>KD030323_030323_C02</t>
-  </si>
-  <si>
-    <t>KD030323_030323_C03</t>
   </si>
   <si>
     <t>KD030323_030323_C04</t>
@@ -556,13 +553,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,11 +873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB08D835-3FD1-C242-BDE7-5D224CD72CD4}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
         <v>148</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>149</v>
-      </c>
-      <c r="J1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -934,19 +930,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2">
         <v>216221700</v>
@@ -968,19 +964,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2">
         <v>3.75</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H3">
         <v>164887300</v>
@@ -989,7 +985,7 @@
         <v>30991590</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">H3/I3</f>
+        <f t="shared" ref="J3:J65" si="1">H3/I3</f>
         <v>5.3203885312112096</v>
       </c>
     </row>
@@ -1002,19 +998,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2">
         <v>7.5</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>153202900</v>
@@ -1036,19 +1032,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5">
         <v>121363600</v>
@@ -1070,19 +1066,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6">
         <v>108236000</v>
@@ -1104,19 +1100,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2">
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7">
         <v>91766180</v>
@@ -1138,19 +1134,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8">
         <v>186263800</v>
@@ -1172,19 +1168,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2">
         <v>3.75</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9">
         <v>155691900</v>
@@ -1206,19 +1202,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2">
         <v>7.5</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10">
         <v>137510400</v>
@@ -1240,19 +1236,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11">
         <v>118252500</v>
@@ -1274,19 +1270,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>114551800</v>
@@ -1308,19 +1304,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2">
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13">
         <v>83217960</v>
@@ -1342,19 +1338,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14">
         <v>203411600</v>
@@ -1376,19 +1372,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="2">
         <v>3.75</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15">
         <v>171060800</v>
@@ -1410,19 +1406,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="2">
         <v>7.5</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16">
         <v>144107600</v>
@@ -1444,19 +1440,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="2">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17">
         <v>132862300</v>
@@ -1478,19 +1474,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="2">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18">
         <v>96343980</v>
@@ -1512,19 +1508,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="2">
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H19">
         <v>88741120</v>
@@ -1546,19 +1542,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2">
         <v>5000</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H20">
         <v>37635000</v>
@@ -1580,19 +1576,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="2">
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H21">
         <v>220268000</v>
@@ -1614,19 +1610,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="2">
         <v>5000</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22">
         <v>37802700</v>
@@ -1648,19 +1644,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="2">
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H23">
         <v>214590200</v>
@@ -1682,19 +1678,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="2">
         <v>5000</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H24">
         <v>35727660</v>
@@ -1716,19 +1712,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H25">
         <v>210063900</v>
@@ -1750,19 +1746,19 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>147</v>
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>146</v>
       </c>
       <c r="H26">
         <v>46679570</v>
@@ -1780,23 +1776,23 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:B58" si="2">0.3/40</f>
+        <f t="shared" ref="B27:B57" si="2">0.3/40</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="2">
         <v>12.5</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H27">
         <v>23647610</v>
@@ -1818,29 +1814,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
         <v>131</v>
       </c>
       <c r="H28">
-        <v>13365370</v>
+        <v>9762032</v>
       </c>
       <c r="I28">
-        <v>4120534</v>
+        <v>1285069</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>3.2436014361245413</v>
+        <v>7.5965041565861444</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1852,29 +1848,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
       </c>
       <c r="H29">
-        <v>9762032</v>
+        <v>9767179</v>
       </c>
       <c r="I29">
-        <v>1285069</v>
+        <v>1313983</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>7.5965041565861444</v>
+        <v>7.4332613131220118</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1886,29 +1882,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
         <v>133</v>
       </c>
       <c r="H30">
-        <v>9767179</v>
+        <v>10034110</v>
       </c>
       <c r="I30">
-        <v>1313983</v>
+        <v>1403958</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>7.4332613131220118</v>
+        <v>7.1470157939197607</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1920,29 +1916,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
         <v>134</v>
       </c>
       <c r="H31">
-        <v>10034110</v>
+        <v>48198660</v>
       </c>
       <c r="I31">
-        <v>1403958</v>
+        <v>1667158</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>7.1470157939197607</v>
+        <v>28.910673133560227</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1954,29 +1950,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
         <v>135</v>
       </c>
       <c r="H32">
-        <v>48198660</v>
+        <v>22950390</v>
       </c>
       <c r="I32">
-        <v>1667158</v>
+        <v>1781237</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>28.910673133560227</v>
+        <v>12.884523508101392</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1988,29 +1984,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
         <v>136</v>
       </c>
       <c r="H33">
-        <v>22950390</v>
+        <v>13455450</v>
       </c>
       <c r="I33">
-        <v>1781237</v>
+        <v>1514979</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>12.884523508101392</v>
+        <v>8.8816082599164741</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2022,29 +2018,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
         <v>137</v>
       </c>
       <c r="H34">
-        <v>13455450</v>
+        <v>9039276</v>
       </c>
       <c r="I34">
-        <v>1514979</v>
+        <v>1286037</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>8.8816082599164741</v>
+        <v>7.0287837752724069</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2056,29 +2052,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>138</v>
       </c>
       <c r="H35">
-        <v>9039276</v>
+        <v>9394878</v>
       </c>
       <c r="I35">
-        <v>1286037</v>
+        <v>1396718</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>7.0287837752724069</v>
+        <v>6.7263957362903604</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2090,29 +2086,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
         <v>139</v>
       </c>
       <c r="H36">
-        <v>9394878</v>
+        <v>10488250</v>
       </c>
       <c r="I36">
-        <v>1396718</v>
+        <v>1415745</v>
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>6.7263957362903604</v>
+        <v>7.4082903347707392</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2124,29 +2120,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G37" t="s">
         <v>140</v>
       </c>
       <c r="H37">
-        <v>10488250</v>
+        <v>50619280</v>
       </c>
       <c r="I37">
-        <v>1415745</v>
+        <v>1809537</v>
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>7.4082903347707392</v>
+        <v>27.97360871869434</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2158,29 +2154,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" t="s">
         <v>141</v>
       </c>
       <c r="H38">
-        <v>50619280</v>
+        <v>20374630</v>
       </c>
       <c r="I38">
-        <v>1809537</v>
+        <v>1703420</v>
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>27.97360871869434</v>
+        <v>11.961013725329044</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2192,29 +2188,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E39" s="2">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G39" t="s">
         <v>142</v>
       </c>
       <c r="H39">
-        <v>20374630</v>
+        <v>13002580</v>
       </c>
       <c r="I39">
-        <v>1703420</v>
+        <v>1522800</v>
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>11.961013725329044</v>
+        <v>8.5385999474651957</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2226,29 +2222,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" t="s">
         <v>143</v>
       </c>
       <c r="H40">
-        <v>13002580</v>
+        <v>9437515</v>
       </c>
       <c r="I40">
-        <v>1522800</v>
+        <v>1242085</v>
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>8.5385999474651957</v>
+        <v>7.5981233168422451</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2260,29 +2256,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
         <v>144</v>
       </c>
       <c r="H41">
-        <v>9437515</v>
+        <v>8291821</v>
       </c>
       <c r="I41">
-        <v>1242085</v>
+        <v>1186799</v>
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>7.5981233168422451</v>
+        <v>6.986710470770535</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2294,29 +2290,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G42" t="s">
         <v>145</v>
       </c>
       <c r="H42">
-        <v>8291821</v>
+        <v>10633850</v>
       </c>
       <c r="I42">
-        <v>1186799</v>
+        <v>1483082</v>
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>6.986710470770535</v>
+        <v>7.170102529732004</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2324,33 +2320,33 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f>0.3/40</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
         <v>123</v>
       </c>
-      <c r="D43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="2">
-        <v>200</v>
+      <c r="E43">
+        <v>500000</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="H43">
-        <v>10633850</v>
+        <v>38330300</v>
       </c>
       <c r="I43">
-        <v>1483082</v>
+        <v>1240045</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>7.170102529732004</v>
+        <v>30.910410509296035</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2358,33 +2354,33 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>0.3/40</f>
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
         <v>123</v>
       </c>
-      <c r="D44" t="s">
-        <v>124</v>
-      </c>
       <c r="E44">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" t="s">
         <v>129</v>
       </c>
       <c r="H44">
-        <v>38330300</v>
+        <v>22518110</v>
       </c>
       <c r="I44">
-        <v>1240045</v>
+        <v>1133226</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>30.910410509296035</v>
+        <v>19.870802470116288</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2396,29 +2392,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
         <v>123</v>
       </c>
-      <c r="D45" t="s">
-        <v>124</v>
-      </c>
       <c r="E45">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G45" t="s">
         <v>130</v>
       </c>
       <c r="H45">
-        <v>22518110</v>
+        <v>10761880</v>
       </c>
       <c r="I45">
-        <v>1133226</v>
+        <v>893047.8</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>19.870802470116288</v>
+        <v>12.050732334820152</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2430,29 +2426,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="s">
         <v>123</v>
       </c>
-      <c r="D46" t="s">
-        <v>124</v>
-      </c>
       <c r="E46">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" t="s">
         <v>131</v>
       </c>
       <c r="H46">
-        <v>10761880</v>
+        <v>8161861</v>
       </c>
       <c r="I46">
-        <v>893047.8</v>
+        <v>988017.9</v>
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>12.050732334820152</v>
+        <v>8.2608432499046831</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2464,13 +2460,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E47">
-        <v>4000000</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
         <v>119</v>
@@ -2479,14 +2475,14 @@
         <v>132</v>
       </c>
       <c r="H47">
-        <v>8161861</v>
+        <v>45242860</v>
       </c>
       <c r="I47">
-        <v>988017.9</v>
+        <v>1337233</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>8.2608432499046831</v>
+        <v>33.833191373530269</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2498,29 +2494,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
         <v>123</v>
       </c>
-      <c r="D48" t="s">
-        <v>117</v>
-      </c>
       <c r="E48">
-        <v>200</v>
+        <v>500000</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H48">
-        <v>45242860</v>
+        <v>31935040</v>
       </c>
       <c r="I48">
-        <v>1337233</v>
+        <v>1102771</v>
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>33.833191373530269</v>
+        <v>28.958904432561248</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2532,29 +2528,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
         <v>123</v>
       </c>
-      <c r="D49" t="s">
-        <v>124</v>
-      </c>
       <c r="E49">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
         <v>135</v>
       </c>
       <c r="H49">
-        <v>31935040</v>
+        <v>20001780</v>
       </c>
       <c r="I49">
-        <v>1102771</v>
+        <v>963173.3</v>
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>28.958904432561248</v>
+        <v>20.766543258622306</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2566,29 +2562,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
         <v>123</v>
       </c>
-      <c r="D50" t="s">
-        <v>124</v>
-      </c>
       <c r="E50">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" t="s">
         <v>136</v>
       </c>
       <c r="H50">
-        <v>20001780</v>
+        <v>9356105</v>
       </c>
       <c r="I50">
-        <v>963173.3</v>
+        <v>841416.2</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>20.766543258622306</v>
+        <v>11.11947333555023</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2600,29 +2596,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
         <v>123</v>
       </c>
-      <c r="D51" t="s">
-        <v>124</v>
-      </c>
       <c r="E51">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G51" t="s">
         <v>137</v>
       </c>
       <c r="H51">
-        <v>9356105</v>
+        <v>7405948</v>
       </c>
       <c r="I51">
-        <v>841416.2</v>
+        <v>880083.8</v>
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>11.11947333555023</v>
+        <v>8.4150486578664445</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2634,13 +2630,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E52">
-        <v>4000000</v>
+        <v>200</v>
       </c>
       <c r="F52" t="s">
         <v>119</v>
@@ -2649,14 +2645,14 @@
         <v>138</v>
       </c>
       <c r="H52">
-        <v>7405948</v>
+        <v>41819350</v>
       </c>
       <c r="I52">
-        <v>880083.8</v>
+        <v>1229913</v>
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>8.4150486578664445</v>
+        <v>34.001876555496203</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2668,29 +2664,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
         <v>123</v>
       </c>
-      <c r="D53" t="s">
-        <v>117</v>
-      </c>
       <c r="E53">
-        <v>200</v>
+        <v>500000</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H53">
-        <v>41819350</v>
+        <v>30643050</v>
       </c>
       <c r="I53">
-        <v>1229913</v>
+        <v>997709.7</v>
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>34.001876555496203</v>
+        <v>30.713392883721589</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2702,29 +2698,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
         <v>123</v>
       </c>
-      <c r="D54" t="s">
-        <v>124</v>
-      </c>
       <c r="E54">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G54" t="s">
         <v>141</v>
       </c>
       <c r="H54">
-        <v>30643050</v>
+        <v>19231920</v>
       </c>
       <c r="I54">
-        <v>997709.7</v>
+        <v>865569.1</v>
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>30.713392883721589</v>
+        <v>22.218815343569911</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2736,29 +2732,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
         <v>123</v>
       </c>
-      <c r="D55" t="s">
-        <v>124</v>
-      </c>
       <c r="E55">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G55" t="s">
         <v>142</v>
       </c>
       <c r="H55">
-        <v>19231920</v>
+        <v>8644826</v>
       </c>
       <c r="I55">
-        <v>865569.1</v>
+        <v>751710.1</v>
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>22.218815343569911</v>
+        <v>11.500212648466476</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2770,29 +2766,29 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" t="s">
         <v>123</v>
       </c>
-      <c r="D56" t="s">
-        <v>124</v>
-      </c>
       <c r="E56">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G56" t="s">
         <v>143</v>
       </c>
       <c r="H56">
-        <v>8644826</v>
+        <v>7155665</v>
       </c>
       <c r="I56">
-        <v>751710.1</v>
+        <v>822718.1</v>
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>11.500212648466476</v>
+        <v>8.6975903410901019</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2804,13 +2800,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E57">
-        <v>4000000</v>
+        <v>200</v>
       </c>
       <c r="F57" t="s">
         <v>119</v>
@@ -2819,14 +2815,14 @@
         <v>144</v>
       </c>
       <c r="H57">
-        <v>7155665</v>
+        <v>36699050</v>
       </c>
       <c r="I57">
-        <v>822718.1</v>
+        <v>1071545</v>
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>8.6975903410901019</v>
+        <v>34.248724971886389</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2834,33 +2830,33 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="2"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C58" s="4" t="s">
+        <f>0.6/40</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" t="s">
         <v>123</v>
       </c>
-      <c r="D58" t="s">
-        <v>117</v>
-      </c>
       <c r="E58">
-        <v>200</v>
-      </c>
-      <c r="F58" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G58" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H58">
-        <v>36699050</v>
+        <v>245202900</v>
       </c>
       <c r="I58">
-        <v>1071545</v>
+        <v>34590160</v>
       </c>
       <c r="J58">
         <f t="shared" si="1"/>
-        <v>34.248724971886389</v>
+        <v>7.088805024319055</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2868,33 +2864,33 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>0.6/40</f>
+        <f t="shared" ref="B59:B75" si="3">0.6/40</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G59" t="s">
         <v>129</v>
       </c>
       <c r="H59">
-        <v>245202900</v>
+        <v>209202900</v>
       </c>
       <c r="I59">
-        <v>34590160</v>
+        <v>28731260</v>
       </c>
       <c r="J59">
         <f t="shared" si="1"/>
-        <v>7.088805024319055</v>
+        <v>7.2813687948248704</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2902,33 +2898,33 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60:B76" si="3">0.6/40</f>
+        <f t="shared" si="3"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E60">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
         <v>130</v>
       </c>
       <c r="H60">
-        <v>209202900</v>
+        <v>192587400</v>
       </c>
       <c r="I60">
-        <v>28731260</v>
+        <v>28504320</v>
       </c>
       <c r="J60">
         <f t="shared" si="1"/>
-        <v>7.2813687948248704</v>
+        <v>6.7564284992590595</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2940,29 +2936,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G61" t="s">
         <v>131</v>
       </c>
       <c r="H61">
-        <v>192587400</v>
+        <v>166598500</v>
       </c>
       <c r="I61">
-        <v>28504320</v>
+        <v>28339320</v>
       </c>
       <c r="J61">
         <f t="shared" si="1"/>
-        <v>6.7564284992590595</v>
+        <v>5.8787049230539052</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2974,29 +2970,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E62">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G62" t="s">
         <v>132</v>
       </c>
       <c r="H62">
-        <v>166598500</v>
+        <v>131570700</v>
       </c>
       <c r="I62">
-        <v>28339320</v>
+        <v>30658500</v>
       </c>
       <c r="J62">
         <f t="shared" si="1"/>
-        <v>5.8787049230539052</v>
+        <v>4.2914917559567494</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -3008,29 +3004,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E63">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
         <v>133</v>
       </c>
       <c r="H63">
-        <v>131570700</v>
+        <v>160350400</v>
       </c>
       <c r="I63">
-        <v>30658500</v>
+        <v>32782080</v>
       </c>
       <c r="J63">
         <f t="shared" si="1"/>
-        <v>4.2914917559567494</v>
+        <v>4.8914040841825779</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -3042,29 +3038,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E64">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G64" t="s">
         <v>134</v>
       </c>
       <c r="H64">
-        <v>160350400</v>
+        <v>232751600</v>
       </c>
       <c r="I64">
-        <v>32782080</v>
+        <v>31946100</v>
       </c>
       <c r="J64">
         <f t="shared" si="1"/>
-        <v>4.8914040841825779</v>
+        <v>7.2857594510754051</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -3076,29 +3072,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G65" t="s">
         <v>135</v>
       </c>
       <c r="H65">
-        <v>232751600</v>
+        <v>182644400</v>
       </c>
       <c r="I65">
-        <v>31946100</v>
+        <v>27403150</v>
       </c>
       <c r="J65">
         <f t="shared" si="1"/>
-        <v>7.2857594510754051</v>
+        <v>6.6650877727560518</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -3110,29 +3106,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E66">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
         <v>136</v>
       </c>
       <c r="H66">
-        <v>182644400</v>
+        <v>178522000</v>
       </c>
       <c r="I66">
-        <v>27403150</v>
+        <v>26774470</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
-        <v>6.6650877727560518</v>
+        <f t="shared" ref="J66:J111" si="4">H66/I66</f>
+        <v>6.6676203114384709</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -3144,29 +3140,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E67">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G67" t="s">
         <v>137</v>
       </c>
       <c r="H67">
-        <v>178522000</v>
+        <v>157618000</v>
       </c>
       <c r="I67">
-        <v>26774470</v>
+        <v>27763560</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J112" si="4">H67/I67</f>
-        <v>6.6676203114384709</v>
+        <f t="shared" si="4"/>
+        <v>5.6771537943981247</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -3178,29 +3174,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G68" t="s">
         <v>138</v>
       </c>
       <c r="H68">
-        <v>157618000</v>
+        <v>122791900</v>
       </c>
       <c r="I68">
-        <v>27763560</v>
+        <v>28898350</v>
       </c>
       <c r="J68">
         <f t="shared" si="4"/>
-        <v>5.6771537943981247</v>
+        <v>4.2490972667989695</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -3212,29 +3208,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E69">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G69" t="s">
         <v>139</v>
       </c>
       <c r="H69">
-        <v>122791900</v>
+        <v>163290900</v>
       </c>
       <c r="I69">
-        <v>28898350</v>
+        <v>32367220</v>
       </c>
       <c r="J69">
         <f t="shared" si="4"/>
-        <v>4.2490972667989695</v>
+        <v>5.0449467084290838</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -3246,29 +3242,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E70">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G70" t="s">
         <v>140</v>
       </c>
       <c r="H70">
-        <v>163290900</v>
+        <v>220201100</v>
       </c>
       <c r="I70">
-        <v>32367220</v>
+        <v>31494090</v>
       </c>
       <c r="J70">
         <f t="shared" si="4"/>
-        <v>5.0449467084290838</v>
+        <v>6.9918229102666567</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -3280,29 +3276,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G71" t="s">
         <v>141</v>
       </c>
       <c r="H71">
-        <v>220201100</v>
+        <v>189603900</v>
       </c>
       <c r="I71">
-        <v>31494090</v>
+        <v>26777150</v>
       </c>
       <c r="J71">
         <f t="shared" si="4"/>
-        <v>6.9918229102666567</v>
+        <v>7.0808095708467853</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -3314,29 +3310,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E72">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G72" t="s">
         <v>142</v>
       </c>
       <c r="H72">
-        <v>189603900</v>
+        <v>169952000</v>
       </c>
       <c r="I72">
-        <v>26777150</v>
+        <v>25650590</v>
       </c>
       <c r="J72">
         <f t="shared" si="4"/>
-        <v>7.0808095708467853</v>
+        <v>6.6256565638451201</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -3348,29 +3344,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E73">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G73" t="s">
         <v>143</v>
       </c>
       <c r="H73">
-        <v>169952000</v>
+        <v>152284800</v>
       </c>
       <c r="I73">
-        <v>25650590</v>
+        <v>28058190</v>
       </c>
       <c r="J73">
         <f t="shared" si="4"/>
-        <v>6.6256565638451201</v>
+        <v>5.4274634251175859</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3382,29 +3378,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E74">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G74" t="s">
         <v>144</v>
       </c>
       <c r="H74">
-        <v>152284800</v>
+        <v>111707700</v>
       </c>
       <c r="I74">
-        <v>28058190</v>
+        <v>25755880</v>
       </c>
       <c r="J74">
         <f t="shared" si="4"/>
-        <v>5.4274634251175859</v>
+        <v>4.3371727155119526</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3416,29 +3412,29 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E75">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
         <v>145</v>
       </c>
       <c r="H75">
-        <v>111707700</v>
+        <v>154147600</v>
       </c>
       <c r="I75">
-        <v>25755880</v>
+        <v>33661360</v>
       </c>
       <c r="J75">
         <f t="shared" si="4"/>
-        <v>4.3371727155119526</v>
+        <v>4.5793634006469137</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3446,33 +3442,33 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>122</v>
+        <f>0.5/40</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D76" t="s">
         <v>116</v>
       </c>
-      <c r="E76">
-        <v>1000000</v>
+      <c r="E76" s="2">
+        <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G76" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="H76">
-        <v>154147600</v>
+        <v>36232600</v>
       </c>
       <c r="I76">
-        <v>33661360</v>
+        <v>3642304</v>
       </c>
       <c r="J76">
         <f t="shared" si="4"/>
-        <v>4.5793634006469137</v>
+        <v>9.9477144137337241</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3480,33 +3476,33 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f>0.5/40</f>
+        <f t="shared" ref="B77:B93" si="5">0.5/40</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G77" t="s">
         <v>129</v>
       </c>
       <c r="H77">
-        <v>36232600</v>
+        <v>16137430</v>
       </c>
       <c r="I77">
-        <v>3642304</v>
+        <v>2358013</v>
       </c>
       <c r="J77">
         <f t="shared" si="4"/>
-        <v>9.9477144137337241</v>
+        <v>6.8436560782319686</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -3514,33 +3510,33 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" ref="B78:B94" si="5">0.5/40</f>
+        <f t="shared" si="5"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G78" t="s">
         <v>130</v>
       </c>
       <c r="H78">
-        <v>16137430</v>
+        <v>12546850</v>
       </c>
       <c r="I78">
-        <v>2358013</v>
+        <v>2244082</v>
       </c>
       <c r="J78">
         <f t="shared" si="4"/>
-        <v>6.8436560782319686</v>
+        <v>5.5910835700299719</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -3552,29 +3548,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G79" t="s">
         <v>131</v>
       </c>
       <c r="H79">
-        <v>12546850</v>
+        <v>6188168</v>
       </c>
       <c r="I79">
-        <v>2244082</v>
+        <v>1715451</v>
       </c>
       <c r="J79">
         <f t="shared" si="4"/>
-        <v>5.5910835700299719</v>
+        <v>3.6073125959295838</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -3586,29 +3582,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G80" t="s">
         <v>132</v>
       </c>
       <c r="H80">
-        <v>6188168</v>
+        <v>6283837</v>
       </c>
       <c r="I80">
-        <v>1715451</v>
+        <v>2117585</v>
       </c>
       <c r="J80">
         <f t="shared" si="4"/>
-        <v>3.6073125959295838</v>
+        <v>2.9674544351230292</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -3620,29 +3616,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2">
         <v>100</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" t="s">
         <v>119</v>
       </c>
       <c r="G81" t="s">
         <v>133</v>
       </c>
       <c r="H81">
-        <v>6283837</v>
+        <v>8202752</v>
       </c>
       <c r="I81">
-        <v>2117585</v>
+        <v>1806175</v>
       </c>
       <c r="J81">
         <f t="shared" si="4"/>
-        <v>2.9674544351230292</v>
+        <v>4.5415045607430065</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3654,29 +3650,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2">
-        <v>100</v>
-      </c>
-      <c r="F82" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G82" t="s">
         <v>134</v>
       </c>
       <c r="H82">
-        <v>8202752</v>
+        <v>27714910</v>
       </c>
       <c r="I82">
-        <v>1806175</v>
+        <v>3296857</v>
       </c>
       <c r="J82">
         <f t="shared" si="4"/>
-        <v>4.5415045607430065</v>
+        <v>8.4064640959556325</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3688,29 +3684,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G83" t="s">
         <v>135</v>
       </c>
       <c r="H83">
-        <v>27714910</v>
+        <v>11950570</v>
       </c>
       <c r="I83">
-        <v>3296857</v>
+        <v>1974944</v>
       </c>
       <c r="J83">
         <f t="shared" si="4"/>
-        <v>8.4064640959556325</v>
+        <v>6.0510930942852053</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -3722,29 +3718,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G84" t="s">
         <v>136</v>
       </c>
       <c r="H84">
-        <v>11950570</v>
+        <v>9665950</v>
       </c>
       <c r="I84">
-        <v>1974944</v>
+        <v>2055741</v>
       </c>
       <c r="J84">
         <f t="shared" si="4"/>
-        <v>6.0510930942852053</v>
+        <v>4.7019298637328344</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -3756,29 +3752,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G85" t="s">
         <v>137</v>
       </c>
       <c r="H85">
-        <v>9665950</v>
+        <v>6073440</v>
       </c>
       <c r="I85">
-        <v>2055741</v>
+        <v>1717482</v>
       </c>
       <c r="J85">
         <f t="shared" si="4"/>
-        <v>4.7019298637328344</v>
+        <v>3.536246668087351</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3790,29 +3786,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G86" t="s">
         <v>138</v>
       </c>
       <c r="H86">
-        <v>6073440</v>
+        <v>6103358</v>
       </c>
       <c r="I86">
-        <v>1717482</v>
+        <v>2119250</v>
       </c>
       <c r="J86">
         <f t="shared" si="4"/>
-        <v>3.536246668087351</v>
+        <v>2.8799613070661789</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -3824,29 +3820,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2">
         <v>100</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" t="s">
         <v>119</v>
       </c>
       <c r="G87" t="s">
         <v>139</v>
       </c>
       <c r="H87">
-        <v>6103358</v>
+        <v>9121704</v>
       </c>
       <c r="I87">
-        <v>2119250</v>
+        <v>2248861</v>
       </c>
       <c r="J87">
         <f t="shared" si="4"/>
-        <v>2.8799613070661789</v>
+        <v>4.0561439768842984</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -3858,29 +3854,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2">
-        <v>100</v>
-      </c>
-      <c r="F88" t="s">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G88" t="s">
         <v>140</v>
       </c>
       <c r="H88">
-        <v>9121704</v>
+        <v>27044200</v>
       </c>
       <c r="I88">
-        <v>2248861</v>
+        <v>3180847</v>
       </c>
       <c r="J88">
         <f t="shared" si="4"/>
-        <v>4.0561439768842984</v>
+        <v>8.502200828898717</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -3892,29 +3888,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G89" t="s">
         <v>141</v>
       </c>
       <c r="H89">
-        <v>27044200</v>
+        <v>12890850</v>
       </c>
       <c r="I89">
-        <v>3180847</v>
+        <v>2023341</v>
       </c>
       <c r="J89">
         <f t="shared" si="4"/>
-        <v>8.502200828898717</v>
+        <v>6.3710714110967945</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -3926,29 +3922,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G90" t="s">
         <v>142</v>
       </c>
       <c r="H90">
-        <v>12890850</v>
+        <v>9736676</v>
       </c>
       <c r="I90">
-        <v>2023341</v>
+        <v>1964359</v>
       </c>
       <c r="J90">
         <f t="shared" si="4"/>
-        <v>6.3710714110967945</v>
+        <v>4.9566683075751428</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -3960,29 +3956,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G91" t="s">
         <v>143</v>
       </c>
       <c r="H91">
-        <v>9736676</v>
+        <v>6290020</v>
       </c>
       <c r="I91">
-        <v>1964359</v>
+        <v>1850731</v>
       </c>
       <c r="J91">
         <f t="shared" si="4"/>
-        <v>4.9566683075751428</v>
+        <v>3.3986678777196686</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -3994,29 +3990,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G92" t="s">
         <v>144</v>
       </c>
       <c r="H92">
-        <v>6290020</v>
+        <v>4899753</v>
       </c>
       <c r="I92">
-        <v>1850731</v>
+        <v>1775680</v>
       </c>
       <c r="J92">
         <f t="shared" si="4"/>
-        <v>3.3986678777196686</v>
+        <v>2.7593671156965218</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -4028,29 +4024,29 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2">
         <v>100</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" t="s">
         <v>119</v>
       </c>
       <c r="G93" t="s">
         <v>145</v>
       </c>
       <c r="H93">
-        <v>4899753</v>
+        <v>9858799</v>
       </c>
       <c r="I93">
-        <v>1775680</v>
+        <v>2316256</v>
       </c>
       <c r="J93">
         <f t="shared" si="4"/>
-        <v>2.7593671156965218</v>
+        <v>4.2563511977950625</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -4058,33 +4054,33 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" si="5"/>
-        <v>1.2500000000000001E-2</v>
+        <f>1/40</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
-      </c>
-      <c r="E94" s="2">
-        <v>100</v>
-      </c>
-      <c r="F94" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="E94">
+        <v>40000000</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G94" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="H94">
-        <v>9858799</v>
+        <v>258064000</v>
       </c>
       <c r="I94">
-        <v>2316256</v>
+        <v>12200010</v>
       </c>
       <c r="J94">
         <f t="shared" si="4"/>
-        <v>4.2563511977950625</v>
+        <v>21.152769546910207</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -4092,33 +4088,33 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <f>1/40</f>
+        <f t="shared" ref="B95:B111" si="6">1/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" t="s">
         <v>126</v>
       </c>
-      <c r="D95" t="s">
-        <v>127</v>
-      </c>
       <c r="E95">
-        <v>40000000</v>
+        <v>35000000</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G95" t="s">
         <v>129</v>
       </c>
       <c r="H95">
-        <v>258064000</v>
+        <v>160981200</v>
       </c>
       <c r="I95">
-        <v>12200010</v>
+        <v>9805853</v>
       </c>
       <c r="J95">
         <f t="shared" si="4"/>
-        <v>21.152769546910207</v>
+        <v>16.416848182406977</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -4126,33 +4122,33 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" ref="B96:B112" si="6">1/40</f>
+        <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" t="s">
         <v>126</v>
       </c>
-      <c r="D96" t="s">
-        <v>127</v>
-      </c>
       <c r="E96">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G96" t="s">
         <v>130</v>
       </c>
       <c r="H96">
-        <v>160981200</v>
+        <v>117259400</v>
       </c>
       <c r="I96">
-        <v>9805853</v>
+        <v>8716574</v>
       </c>
       <c r="J96">
         <f t="shared" si="4"/>
-        <v>16.416848182406977</v>
+        <v>13.452464236522285</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -4164,29 +4160,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" t="s">
         <v>126</v>
       </c>
-      <c r="D97" t="s">
-        <v>127</v>
-      </c>
       <c r="E97">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G97" t="s">
         <v>131</v>
       </c>
       <c r="H97">
-        <v>117259400</v>
+        <v>75495990</v>
       </c>
       <c r="I97">
-        <v>8716574</v>
+        <v>7930828</v>
       </c>
       <c r="J97">
         <f t="shared" si="4"/>
-        <v>13.452464236522285</v>
+        <v>9.519307441795485</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -4198,29 +4194,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" t="s">
         <v>126</v>
       </c>
-      <c r="D98" t="s">
-        <v>127</v>
-      </c>
       <c r="E98">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G98" t="s">
         <v>132</v>
       </c>
       <c r="H98">
-        <v>75495990</v>
+        <v>44351200</v>
       </c>
       <c r="I98">
-        <v>7930828</v>
+        <v>7311289</v>
       </c>
       <c r="J98">
         <f t="shared" si="4"/>
-        <v>9.519307441795485</v>
+        <v>6.0661259594580379</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -4232,29 +4228,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" t="s">
         <v>126</v>
       </c>
-      <c r="D99" t="s">
-        <v>127</v>
-      </c>
       <c r="E99">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
         <v>133</v>
       </c>
       <c r="H99">
-        <v>44351200</v>
+        <v>36328480</v>
       </c>
       <c r="I99">
-        <v>7311289</v>
+        <v>5965870</v>
       </c>
       <c r="J99">
         <f t="shared" si="4"/>
-        <v>6.0661259594580379</v>
+        <v>6.0893851190186847</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -4266,29 +4262,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" t="s">
         <v>126</v>
       </c>
-      <c r="D100" t="s">
-        <v>127</v>
-      </c>
       <c r="E100">
-        <v>0</v>
+        <v>40000000</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G100" t="s">
         <v>134</v>
       </c>
       <c r="H100">
-        <v>36328480</v>
+        <v>225092000</v>
       </c>
       <c r="I100">
-        <v>5965870</v>
+        <v>11938610</v>
       </c>
       <c r="J100">
         <f t="shared" si="4"/>
-        <v>6.0893851190186847</v>
+        <v>18.854121208415386</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -4300,29 +4296,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" t="s">
         <v>126</v>
       </c>
-      <c r="D101" t="s">
-        <v>127</v>
-      </c>
       <c r="E101">
-        <v>40000000</v>
+        <v>35000000</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G101" t="s">
         <v>135</v>
       </c>
       <c r="H101">
-        <v>225092000</v>
+        <v>167577600</v>
       </c>
       <c r="I101">
-        <v>11938610</v>
+        <v>10113750</v>
       </c>
       <c r="J101">
         <f t="shared" si="4"/>
-        <v>18.854121208415386</v>
+        <v>16.569284390063032</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -4334,29 +4330,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" t="s">
         <v>126</v>
       </c>
-      <c r="D102" t="s">
-        <v>127</v>
-      </c>
       <c r="E102">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G102" t="s">
         <v>136</v>
       </c>
       <c r="H102">
-        <v>167577600</v>
+        <v>128672900</v>
       </c>
       <c r="I102">
-        <v>10113750</v>
+        <v>9473434</v>
       </c>
       <c r="J102">
         <f t="shared" si="4"/>
-        <v>16.569284390063032</v>
+        <v>13.582498173312866</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -4368,29 +4364,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" t="s">
         <v>126</v>
       </c>
-      <c r="D103" t="s">
-        <v>127</v>
-      </c>
       <c r="E103">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G103" t="s">
         <v>137</v>
       </c>
       <c r="H103">
-        <v>128672900</v>
+        <v>74996490</v>
       </c>
       <c r="I103">
-        <v>9473434</v>
+        <v>8049828</v>
       </c>
       <c r="J103">
         <f t="shared" si="4"/>
-        <v>13.582498173312866</v>
+        <v>9.316533222821656</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -4402,29 +4398,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" t="s">
         <v>126</v>
       </c>
-      <c r="D104" t="s">
-        <v>127</v>
-      </c>
       <c r="E104">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G104" t="s">
         <v>138</v>
       </c>
       <c r="H104">
-        <v>74996490</v>
+        <v>44969280</v>
       </c>
       <c r="I104">
-        <v>8049828</v>
+        <v>7839134</v>
       </c>
       <c r="J104">
         <f t="shared" si="4"/>
-        <v>9.316533222821656</v>
+        <v>5.7365112013648449</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -4436,29 +4432,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" t="s">
         <v>126</v>
       </c>
-      <c r="D105" t="s">
-        <v>127</v>
-      </c>
       <c r="E105">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G105" t="s">
         <v>139</v>
       </c>
       <c r="H105">
-        <v>44969280</v>
+        <v>33713810</v>
       </c>
       <c r="I105">
-        <v>7839134</v>
+        <v>5976963</v>
       </c>
       <c r="J105">
         <f t="shared" si="4"/>
-        <v>5.7365112013648449</v>
+        <v>5.6406255149981686</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -4470,29 +4466,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" t="s">
         <v>126</v>
       </c>
-      <c r="D106" t="s">
-        <v>127</v>
-      </c>
       <c r="E106">
-        <v>0</v>
+        <v>40000000</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G106" t="s">
         <v>140</v>
       </c>
       <c r="H106">
-        <v>33713810</v>
+        <v>234408400</v>
       </c>
       <c r="I106">
-        <v>5976963</v>
+        <v>11726300</v>
       </c>
       <c r="J106">
         <f t="shared" si="4"/>
-        <v>5.6406255149981686</v>
+        <v>19.989971261182131</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -4504,29 +4500,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" t="s">
         <v>126</v>
       </c>
-      <c r="D107" t="s">
-        <v>127</v>
-      </c>
       <c r="E107">
-        <v>40000000</v>
+        <v>35000000</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G107" t="s">
         <v>141</v>
       </c>
       <c r="H107">
-        <v>234408400</v>
+        <v>143619100</v>
       </c>
       <c r="I107">
-        <v>11726300</v>
+        <v>9256446</v>
       </c>
       <c r="J107">
         <f t="shared" si="4"/>
-        <v>19.989971261182131</v>
+        <v>15.515576928769422</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -4538,29 +4534,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" t="s">
         <v>126</v>
       </c>
-      <c r="D108" t="s">
-        <v>127</v>
-      </c>
       <c r="E108">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G108" t="s">
         <v>142</v>
       </c>
       <c r="H108">
-        <v>143619100</v>
+        <v>126584200</v>
       </c>
       <c r="I108">
-        <v>9256446</v>
+        <v>9006117</v>
       </c>
       <c r="J108">
         <f t="shared" si="4"/>
-        <v>15.515576928769422</v>
+        <v>14.055358152686669</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -4572,29 +4568,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" t="s">
         <v>126</v>
       </c>
-      <c r="D109" t="s">
-        <v>127</v>
-      </c>
       <c r="E109">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G109" t="s">
         <v>143</v>
       </c>
       <c r="H109">
-        <v>126584200</v>
+        <v>67605700</v>
       </c>
       <c r="I109">
-        <v>9006117</v>
+        <v>7558568</v>
       </c>
       <c r="J109">
         <f t="shared" si="4"/>
-        <v>14.055358152686669</v>
+        <v>8.9442471113576012</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -4606,29 +4602,29 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" t="s">
         <v>126</v>
       </c>
-      <c r="D110" t="s">
-        <v>127</v>
-      </c>
       <c r="E110">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G110" t="s">
         <v>144</v>
       </c>
       <c r="H110">
-        <v>67605700</v>
+        <v>39721350</v>
       </c>
       <c r="I110">
-        <v>7558568</v>
+        <v>6501808</v>
       </c>
       <c r="J110">
         <f t="shared" si="4"/>
-        <v>8.9442471113576012</v>
+        <v>6.109277604014145</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -4640,61 +4636,27 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" t="s">
         <v>126</v>
       </c>
-      <c r="D111" t="s">
-        <v>127</v>
-      </c>
       <c r="E111">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G111" t="s">
         <v>145</v>
       </c>
       <c r="H111">
-        <v>39721350</v>
+        <v>30807450</v>
       </c>
       <c r="I111">
-        <v>6501808</v>
+        <v>5567827</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
-        <v>6.109277604014145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <f t="shared" si="6"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D112" t="s">
-        <v>127</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" t="s">
-        <v>146</v>
-      </c>
-      <c r="H112">
-        <v>30807450</v>
-      </c>
-      <c r="I112">
-        <v>5567827</v>
-      </c>
-      <c r="J112">
         <f t="shared" si="4"/>
         <v>5.5331191145127177</v>
       </c>
